--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11140" activeTab="4"/>
+    <workbookView windowWidth="21000" windowHeight="11595" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
   <si>
     <t>health</t>
   </si>
@@ -163,23 +163,30 @@
   </si>
   <si>
     <t>slot</t>
+  </si>
+  <si>
+    <t>{"sight":4}</t>
+  </si>
+  <si>
+    <t>{"sight": 5}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -192,7 +199,90 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -200,7 +290,38 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -208,135 +329,14 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -350,7 +350,103 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,7 +458,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -374,25 +476,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,13 +500,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,7 +518,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -434,103 +530,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,6 +541,39 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -561,8 +594,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -592,21 +627,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -621,175 +641,155 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -804,12 +804,18 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -818,55 +824,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="1" builtinId="3"/>
-    <cellStyle name="Currency" xfId="2" builtinId="4"/>
-    <cellStyle name="Percent" xfId="3" builtinId="5"/>
-    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
-    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
-    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
-    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
-    <cellStyle name="Note" xfId="8" builtinId="10"/>
-    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
-    <cellStyle name="Title" xfId="10" builtinId="15"/>
-    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
-    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
-    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
-    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
-    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
-    <cellStyle name="Input" xfId="16" builtinId="20"/>
-    <cellStyle name="Output" xfId="17" builtinId="21"/>
-    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
-    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
-    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
-    <cellStyle name="Total" xfId="21" builtinId="25"/>
-    <cellStyle name="Good" xfId="22" builtinId="26"/>
-    <cellStyle name="Bad" xfId="23" builtinId="27"/>
-    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
-    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
-    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
-    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
-    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
-    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
-    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1169,19 +1175,19 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4296875" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.4296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="1" customWidth="1"/>
-    <col min="8" max="10" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="10" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
+    <col min="8" max="10" width="12.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:10">
@@ -1191,7 +1197,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="D1" s="11" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1218,12 +1224,12 @@
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>20</v>
-      </c>
-      <c r="C2" s="3">
-        <v>20</v>
-      </c>
-      <c r="D2" s="7">
+        <v>3</v>
+      </c>
+      <c r="C2" s="6">
+        <v>0.2</v>
+      </c>
+      <c r="D2" s="8">
         <v>0.01</v>
       </c>
       <c r="E2" s="3">
@@ -1264,13 +1270,13 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.2890625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.4296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:5">
@@ -1323,14 +1329,14 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.4296875" style="8" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="10" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="11" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1338,7 +1344,7 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="8">
         <v>0.5</v>
       </c>
     </row>
@@ -1361,15 +1367,15 @@
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="3.578125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.578125" style="1" customWidth="1"/>
-    <col min="4" max="5" width="18.3125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.4296875" style="4" customWidth="1"/>
-    <col min="8" max="8" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="4" max="5" width="18.375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:8">
@@ -1446,7 +1452,7 @@
       <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="8">
         <v>1.5</v>
       </c>
     </row>
@@ -1469,7 +1475,7 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="8">
         <v>3.5</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1504,7 +1510,7 @@
       <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="8">
         <v>2.5</v>
       </c>
     </row>
@@ -1527,7 +1533,7 @@
         <f t="shared" si="2"/>
         <v>1296</v>
       </c>
-      <c r="F6" s="7">
+      <c r="F6" s="8">
         <v>6.5</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1556,7 +1562,7 @@
         <f t="shared" si="2"/>
         <v>7776</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="8">
         <v>8.5</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1614,7 +1620,7 @@
         <f t="shared" si="2"/>
         <v>279936</v>
       </c>
-      <c r="F9" s="7">
+      <c r="F9" s="8">
         <v>13.5</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1678,7 +1684,7 @@
       <c r="G11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="8">
         <v>8.5</v>
       </c>
     </row>
@@ -1779,10 +1785,10 @@
       <c r="C15" s="3">
         <v>10000000</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="9">
         <v>10000000000000</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="9">
         <v>10000000000000</v>
       </c>
       <c r="F15" s="3">
@@ -1806,21 +1812,21 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F102"/>
+  <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="12.4296875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.578125" style="1" customWidth="1"/>
-    <col min="3" max="4" width="12.4296875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.2890625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.4296875" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="3" max="4" width="12.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:6">
@@ -1851,13 +1857,13 @@
         <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>100000</v>
-      </c>
-      <c r="E2" s="3">
-        <v>1000000</v>
+        <v>100</v>
+      </c>
+      <c r="E2" s="6">
+        <v>1e-9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:6">
@@ -1911,7 +1917,7 @@
         <v>5</v>
       </c>
       <c r="D5" s="3">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="E5" s="3">
         <v>10</v>
@@ -3914,7 +3920,7 @@
         <f t="shared" si="12"/>
         <v>225</v>
       </c>
-      <c r="F95" s="5" t="s">
+      <c r="F95" s="4" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4079,8 +4085,29 @@
         <v>10</v>
       </c>
     </row>
+    <row r="103" ht="15" spans="1:6">
+      <c r="A103" s="1">
+        <v>101</v>
+      </c>
+      <c r="B103" s="1">
+        <v>1</v>
+      </c>
+      <c r="C103" s="1">
+        <v>11</v>
+      </c>
+      <c r="D103" s="7">
+        <v>1000000000000000</v>
+      </c>
+      <c r="E103" s="7">
+        <v>1000</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200"/>
   <headerFooter/>
 </worksheet>
 </file>
@@ -4098,9 +4125,9 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="2" width="12.4296875" style="1" customWidth="1"/>
+    <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:2">

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11595" activeTab="4"/>
+    <workbookView windowWidth="27660" windowHeight="11140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="48">
   <si>
     <t>health</t>
   </si>
@@ -163,30 +163,25 @@
   </si>
   <si>
     <t>slot</t>
-  </si>
-  <si>
-    <t>{"sight":4}</t>
-  </si>
-  <si>
-    <t>{"sight": 5}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="6">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
   </numFmts>
   <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -197,23 +192,72 @@
       <charset val="134"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -221,83 +265,15 @@
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -305,38 +281,57 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -350,7 +345,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,31 +441,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,7 +453,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,7 +465,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,13 +495,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -440,97 +525,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -541,39 +536,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -594,10 +556,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -627,6 +587,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -641,155 +616,175 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -810,12 +805,15 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -824,55 +822,55 @@
     </xf>
   </cellXfs>
   <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1178,12 +1176,12 @@
       <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
   <cols>
     <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="12.375" style="10" customWidth="1"/>
+    <col min="4" max="4" width="12.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
@@ -1197,7 +1195,7 @@
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="12" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
@@ -1229,7 +1227,7 @@
       <c r="C2" s="6">
         <v>0.2</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="10">
         <v>0.01</v>
       </c>
       <c r="E2" s="3">
@@ -1270,7 +1268,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
@@ -1329,14 +1327,14 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="12.375" style="10" customWidth="1"/>
+    <col min="2" max="2" width="12.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:2">
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="12" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1344,7 +1342,7 @@
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8">
+      <c r="B2" s="10">
         <v>0.5</v>
       </c>
     </row>
@@ -1367,7 +1365,7 @@
       <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
@@ -1452,7 +1450,7 @@
       <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="10">
         <v>1.5</v>
       </c>
     </row>
@@ -1475,7 +1473,7 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="F4" s="8">
+      <c r="F4" s="10">
         <v>3.5</v>
       </c>
       <c r="G4" s="5" t="s">
@@ -1510,7 +1508,7 @@
       <c r="G5" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="H5" s="8">
+      <c r="H5" s="10">
         <v>2.5</v>
       </c>
     </row>
@@ -1533,7 +1531,7 @@
         <f t="shared" si="2"/>
         <v>1296</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="10">
         <v>6.5</v>
       </c>
       <c r="G6" s="5" t="s">
@@ -1562,7 +1560,7 @@
         <f t="shared" si="2"/>
         <v>7776</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="10">
         <v>8.5</v>
       </c>
       <c r="G7" s="5" t="s">
@@ -1620,7 +1618,7 @@
         <f t="shared" si="2"/>
         <v>279936</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="10">
         <v>13.5</v>
       </c>
       <c r="G9" s="5" t="s">
@@ -1684,7 +1682,7 @@
       <c r="G11" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="H11" s="8">
+      <c r="H11" s="10">
         <v>8.5</v>
       </c>
     </row>
@@ -1815,12 +1813,12 @@
   <dimension ref="A1:F103"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="H104" sqref="H104"/>
+      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
@@ -1863,7 +1861,7 @@
         <v>1e-9</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:6">
@@ -4067,7 +4065,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <f t="shared" si="13"/>
+        <f>ROUND(B101*1.095,-5)</f>
         <v>2600000</v>
       </c>
       <c r="C102" s="3">
@@ -4085,12 +4083,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="103" ht="15" spans="1:6">
+    <row r="103" spans="1:6">
       <c r="A103" s="1">
         <v>101</v>
       </c>
-      <c r="B103" s="1">
-        <v>1</v>
+      <c r="B103" s="3">
+        <f>ROUND(B102*1.1,-5)</f>
+        <v>2900000</v>
       </c>
       <c r="C103" s="1">
         <v>11</v>
@@ -4098,11 +4097,11 @@
       <c r="D103" s="7">
         <v>1000000000000000</v>
       </c>
-      <c r="E103" s="7">
+      <c r="E103" s="8">
         <v>1000</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>49</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -4125,7 +4124,7 @@
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
   </cols>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11140" activeTab="4"/>
+    <workbookView windowWidth="27660" windowHeight="11140" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="drop" sheetId="3" r:id="rId3"/>
     <sheet name="rarity" sheetId="4" r:id="rId4"/>
     <sheet name="level" sheetId="5" r:id="rId5"/>
-    <sheet name="legacy" sheetId="6" r:id="rId6"/>
+    <sheet name="tag" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -1812,7 +1812,7 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
@@ -4065,7 +4065,7 @@
         <v>100</v>
       </c>
       <c r="B102" s="3">
-        <f>ROUND(B101*1.095,-5)</f>
+        <f t="shared" si="13"/>
         <v>2600000</v>
       </c>
       <c r="C102" s="3">
@@ -4118,7 +4118,7 @@
   </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11140" activeTab="5"/>
+    <workbookView windowWidth="27660" windowHeight="11140"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
   <si>
     <t>health</t>
   </si>
@@ -61,6 +61,12 @@
   </si>
   <si>
     <t>movable</t>
+  </si>
+  <si>
+    <t>bob</t>
+  </si>
+  <si>
+    <t>aggressive</t>
   </si>
   <si>
     <t>protein</t>
@@ -1168,15 +1174,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C2" sqref="C2"/>
+      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
     <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
@@ -1246,6 +1252,38 @@
         <v>12</v>
       </c>
       <c r="J2" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3</v>
+      </c>
+      <c r="C3" s="1">
+        <v>0.2</v>
+      </c>
+      <c r="D3" s="11">
+        <v>0.01</v>
+      </c>
+      <c r="E3" s="1">
+        <v>1</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" s="1">
+        <v>20</v>
+      </c>
+      <c r="H3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="J3" s="4" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1293,7 +1331,7 @@
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:5">
       <c r="A2" s="5" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B2" s="3">
         <v>20</v>
@@ -1319,15 +1357,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="11" customWidth="1"/>
@@ -1335,7 +1373,7 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:2">
       <c r="B1" s="12" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
@@ -1344,6 +1382,14 @@
       </c>
       <c r="B2" s="10">
         <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -1378,7 +1424,7 @@
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:8">
       <c r="B1" s="5" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
@@ -1387,13 +1433,13 @@
         <v>0</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
@@ -1404,7 +1450,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1419,7 +1465,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1430,7 +1476,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" s="3">
         <f t="shared" ref="C3:C14" si="0">C2*3</f>
@@ -1448,7 +1494,7 @@
         <v>2</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H3" s="10">
         <v>1.5</v>
@@ -1459,7 +1505,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" s="3">
         <f t="shared" si="0"/>
@@ -1477,7 +1523,7 @@
         <v>3.5</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
@@ -1488,7 +1534,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C5" s="3">
         <f t="shared" si="0"/>
@@ -1506,7 +1552,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H5" s="10">
         <v>2.5</v>
@@ -1517,7 +1563,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C6" s="3">
         <f t="shared" si="0"/>
@@ -1535,7 +1581,7 @@
         <v>6.5</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
@@ -1546,7 +1592,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C7" s="3">
         <f t="shared" si="0"/>
@@ -1564,7 +1610,7 @@
         <v>8.5</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
@@ -1575,7 +1621,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C8" s="3">
         <f t="shared" si="0"/>
@@ -1593,7 +1639,7 @@
         <v>11</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -1604,7 +1650,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C9" s="3">
         <f t="shared" si="0"/>
@@ -1622,7 +1668,7 @@
         <v>13.5</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
@@ -1633,7 +1679,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C10" s="3">
         <f t="shared" si="0"/>
@@ -1651,7 +1697,7 @@
         <v>16</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
@@ -1662,7 +1708,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C11" s="3">
         <f t="shared" si="0"/>
@@ -1680,7 +1726,7 @@
         <v>20</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H11" s="10">
         <v>8.5</v>
@@ -1691,7 +1737,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C12" s="3">
         <f t="shared" si="0"/>
@@ -1709,7 +1755,7 @@
         <v>25</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -1720,7 +1766,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C13" s="3">
         <f t="shared" si="0"/>
@@ -1738,7 +1784,7 @@
         <v>30</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
@@ -1749,7 +1795,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C14" s="3">
         <f t="shared" si="0"/>
@@ -1767,7 +1813,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="H14" s="3">
         <v>15</v>
@@ -1778,7 +1824,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C15" s="3">
         <v>10000000</v>
@@ -1793,7 +1839,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="H15" s="3">
         <v>20</v>
@@ -1832,7 +1878,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -4116,29 +4162,35 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="2:2">
+    <row r="1" ht="17.25" customHeight="1" spans="2:3">
       <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:2">
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:3">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2">
         <v>1</v>
       </c>
     </row>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11140"/>
+    <workbookView windowWidth="27660" windowHeight="11140" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
   <si>
     <t>health</t>
   </si>
@@ -169,6 +169,9 @@
   </si>
   <si>
     <t>slot</t>
+  </si>
+  <si>
+    <t>{"sight": 5}</t>
   </si>
 </sst>
 </file>
@@ -1176,7 +1179,7 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
@@ -1858,10 +1861,10 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J94" sqref="J94"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -4147,7 +4150,7 @@
         <v>1000</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11140" activeTab="4"/>
+    <workbookView windowWidth="27660" windowHeight="11140"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -1179,10 +1179,10 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I3" sqref="I3"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1237,7 +1237,7 @@
         <v>0.2</v>
       </c>
       <c r="D2" s="10">
-        <v>0.01</v>
+        <v>0.1</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
@@ -1269,7 +1269,7 @@
         <v>0.2</v>
       </c>
       <c r="D3" s="11">
-        <v>0.01</v>
+        <v>0.6</v>
       </c>
       <c r="E3" s="1">
         <v>1</v>
@@ -1861,8 +1861,8 @@
   </sheetPr>
   <dimension ref="A1:F103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A81" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11140"/>
+    <workbookView windowWidth="27660" windowHeight="11080" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="52">
   <si>
     <t>health</t>
   </si>
@@ -171,7 +171,10 @@
     <t>slot</t>
   </si>
   <si>
-    <t>{"sight": 5}</t>
+    <t>{"sight":1.5}</t>
+  </si>
+  <si>
+    <t>{"sight": 2.5}</t>
   </si>
 </sst>
 </file>
@@ -1179,10 +1182,10 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1231,10 +1234,10 @@
         <v>9</v>
       </c>
       <c r="B2" s="3">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C2" s="6">
-        <v>0.2</v>
+        <v>5</v>
       </c>
       <c r="D2" s="10">
         <v>0.1</v>
@@ -1263,7 +1266,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1">
         <v>0.2</v>
@@ -1859,12 +1862,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:F103"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1907,10 +1910,10 @@
         <v>100</v>
       </c>
       <c r="E2" s="6">
-        <v>1e-9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>10</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:6">
@@ -4150,7 +4153,28 @@
         <v>1000</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>50</v>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
+      <c r="A104" s="1">
+        <v>102</v>
+      </c>
+      <c r="B104" s="3">
+        <f>ROUND(B103*1.15,-5)</f>
+        <v>3300000</v>
+      </c>
+      <c r="C104" s="1">
+        <v>11</v>
+      </c>
+      <c r="D104" s="7">
+        <v>1000000000000000</v>
+      </c>
+      <c r="E104" s="1">
+        <v>1000</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
   <si>
     <t>health</t>
   </si>
@@ -171,7 +171,70 @@
     <t>slot</t>
   </si>
   <si>
-    <t>{"sight":1.5}</t>
+    <t>{"sight":1.5,"speed":22.0}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.1}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.2}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.3}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.4}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.5}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.6}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.7}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.8}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":22.9}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.0}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.1}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.2}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.3}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.4}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.5}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.6}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.7}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.8}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":23.9}</t>
+  </si>
+  <si>
+    <t>{"sight":1.5,"speed":24}</t>
+  </si>
+  <si>
+    <t>{"sight": 2.5, "speed":25}</t>
   </si>
   <si>
     <t>{"sight": 2.5}</t>
@@ -1867,7 +1930,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -1876,7 +1939,7 @@
     <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="4" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:6">
@@ -1933,7 +1996,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:6">
@@ -1953,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>10</v>
+        <v>52</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:6">
@@ -1973,7 +2036,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>10</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:6">
@@ -1994,7 +2057,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>10</v>
+        <v>54</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:6">
@@ -2014,7 +2077,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:6">
@@ -2034,7 +2097,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>10</v>
+        <v>56</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:6">
@@ -2054,7 +2117,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>10</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:6">
@@ -2074,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:6">
@@ -2094,7 +2157,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:6">
@@ -2114,7 +2177,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:6">
@@ -2134,7 +2197,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>10</v>
+        <v>61</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:6">
@@ -2154,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>10</v>
+        <v>62</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:6">
@@ -2174,7 +2237,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:6">
@@ -2194,7 +2257,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>10</v>
+        <v>64</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:6">
@@ -2214,7 +2277,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:6">
@@ -2234,7 +2297,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>10</v>
+        <v>66</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:6">
@@ -2254,7 +2317,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:6">
@@ -2274,7 +2337,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="1:6">
@@ -2294,7 +2357,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>10</v>
+        <v>69</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="1:6">
@@ -2314,7 +2377,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>10</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="1:6">
@@ -4153,7 +4216,7 @@
         <v>1000</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>51</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4174,7 +4237,7 @@
         <v>1000</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>51</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11080" activeTab="4"/>
+    <workbookView windowWidth="27660" windowHeight="11080" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
   <si>
     <t>health</t>
   </si>
@@ -75,13 +75,22 @@
     <t>name</t>
   </si>
   <si>
-    <t>damage</t>
+    <t>petal</t>
+  </si>
+  <si>
+    <t>mob</t>
   </si>
   <si>
     <t>size</t>
   </si>
   <si>
     <t>color</t>
+  </si>
+  <si>
+    <t>dropRate</t>
+  </si>
+  <si>
+    <t>sight</t>
   </si>
   <si>
     <t>common</t>
@@ -870,23 +879,23 @@
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="176" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -1253,14 +1262,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="11" customWidth="1"/>
     <col min="5" max="5" width="12.375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="12.375" style="6" customWidth="1"/>
     <col min="7" max="7" width="12.375" style="1" customWidth="1"/>
-    <col min="8" max="10" width="12.375" style="4" customWidth="1"/>
+    <col min="8" max="10" width="12.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:10">
@@ -1276,56 +1285,56 @@
       <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="I1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="J1" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:10">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>20</v>
       </c>
-      <c r="C2" s="6">
+      <c r="C2" s="4">
         <v>5</v>
       </c>
-      <c r="D2" s="10">
+      <c r="D2" s="9">
         <v>0.1</v>
       </c>
       <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
       <c r="G2" s="3">
         <v>20</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="1">
@@ -1340,19 +1349,19 @@
       <c r="E3" s="1">
         <v>1</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
       <c r="G3" s="1">
         <v>20</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="6" t="s">
         <v>13</v>
       </c>
     </row>
@@ -1377,11 +1386,11 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="12.25" style="1" customWidth="1"/>
     <col min="4" max="4" width="12.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="12.375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:5">
@@ -1394,12 +1403,12 @@
       <c r="D1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:5">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B2" s="3">
@@ -1411,7 +1420,7 @@
       <c r="D2" s="3">
         <v>50</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -1436,7 +1445,7 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="12.375" style="4" customWidth="1"/>
+    <col min="1" max="1" width="12.375" style="6" customWidth="1"/>
     <col min="2" max="2" width="12.375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1446,15 +1455,15 @@
       </c>
     </row>
     <row r="2" ht="17.25" customHeight="1" spans="1:2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="10">
+      <c r="B2" s="9">
         <v>0.5</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="B3" s="11">
@@ -1472,54 +1481,60 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H15"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18:E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
   <cols>
     <col min="1" max="1" width="3.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="10.625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="10.625" style="6" customWidth="1"/>
+    <col min="3" max="3" width="14.4375" style="1" customWidth="1"/>
     <col min="4" max="5" width="18.375" style="1" customWidth="1"/>
     <col min="6" max="6" width="12.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.375" style="6" customWidth="1"/>
     <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="2:8">
-      <c r="B1" s="5" t="s">
+    <row r="1" ht="17.25" customHeight="1" spans="2:10">
+      <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>21</v>
       </c>
       <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:10">
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>21</v>
+      <c r="B2" s="7" t="s">
+        <v>24</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1533,385 +1548,469 @@
       <c r="F2" s="3">
         <v>1</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>22</v>
+      <c r="G2" s="7" t="s">
+        <v>25</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I2">
+        <v>0.1</v>
+      </c>
+      <c r="J2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:10">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="5" t="s">
-        <v>23</v>
+      <c r="B3" s="7" t="s">
+        <v>26</v>
       </c>
       <c r="C3" s="3">
-        <f t="shared" ref="C3:C14" si="0">C2*3</f>
+        <f>C2*4</f>
+        <v>4</v>
+      </c>
+      <c r="D3" s="3">
+        <f t="shared" ref="D3:D14" si="0">D2*3</f>
         <v>3</v>
       </c>
-      <c r="D3" s="3">
-        <f t="shared" ref="D3:D14" si="1">D2*6</f>
-        <v>6</v>
-      </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E14" si="2">E2*6</f>
+        <f t="shared" ref="E3:E14" si="1">E2*6</f>
         <v>6</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
-      <c r="G3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H3" s="10">
+      <c r="G3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="9">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I3">
+        <v>0.08</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:10">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="5" t="s">
-        <v>25</v>
+      <c r="B4" s="7" t="s">
+        <v>28</v>
       </c>
       <c r="C4" s="3">
+        <f t="shared" ref="C4:C14" si="2">C3*4</f>
+        <v>16</v>
+      </c>
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="D4" s="3">
+      <c r="E4" s="3">
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="E4" s="3">
-        <f t="shared" si="2"/>
-        <v>36</v>
-      </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>3.5</v>
       </c>
-      <c r="G4" s="5" t="s">
-        <v>26</v>
+      <c r="G4" s="7" t="s">
+        <v>29</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I4">
+        <v>0.06</v>
+      </c>
+      <c r="J4">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" spans="1:10">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>27</v>
+      <c r="B5" s="7" t="s">
+        <v>30</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" si="2"/>
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <f t="shared" si="1"/>
         <v>216</v>
       </c>
-      <c r="E5" s="3">
-        <f t="shared" si="2"/>
-        <v>216</v>
-      </c>
       <c r="F5" s="3">
         <v>5</v>
       </c>
-      <c r="G5" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="H5" s="10">
+      <c r="G5" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H5" s="9">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I5">
+        <v>0.05</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:10">
       <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>29</v>
+      <c r="B6" s="7" t="s">
+        <v>32</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="2"/>
+        <v>256</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <f t="shared" si="1"/>
         <v>1296</v>
       </c>
-      <c r="E6" s="3">
-        <f t="shared" si="2"/>
-        <v>1296</v>
-      </c>
-      <c r="F6" s="10">
+      <c r="F6" s="9">
         <v>6.5</v>
       </c>
-      <c r="G6" s="5" t="s">
-        <v>30</v>
+      <c r="G6" s="7" t="s">
+        <v>33</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I6">
+        <v>0.05</v>
+      </c>
+      <c r="J6">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" spans="1:10">
       <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>31</v>
+      <c r="B7" s="7" t="s">
+        <v>34</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="2"/>
+        <v>1024</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="1"/>
         <v>7776</v>
       </c>
-      <c r="E7" s="3">
-        <f t="shared" si="2"/>
-        <v>7776</v>
-      </c>
-      <c r="F7" s="10">
+      <c r="F7" s="9">
         <v>8.5</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>32</v>
+      <c r="G7" s="7" t="s">
+        <v>35</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
       </c>
-    </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I7">
+        <v>0.05</v>
+      </c>
+      <c r="J7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1" spans="1:10">
       <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>33</v>
+      <c r="B8" s="7" t="s">
+        <v>36</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="2"/>
+        <v>4096</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>729</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="1"/>
         <v>46656</v>
       </c>
-      <c r="E8" s="3">
-        <f t="shared" si="2"/>
-        <v>46656</v>
-      </c>
       <c r="F8" s="3">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>34</v>
+      <c r="G8" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I8">
+        <v>0.04</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" spans="1:10">
       <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
-        <v>35</v>
+      <c r="B9" s="7" t="s">
+        <v>38</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="2"/>
+        <v>16384</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>2187</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="1"/>
         <v>279936</v>
       </c>
-      <c r="E9" s="3">
-        <f t="shared" si="2"/>
-        <v>279936</v>
-      </c>
-      <c r="F9" s="10">
+      <c r="F9" s="9">
         <v>13.5</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>36</v>
+      <c r="G9" s="7" t="s">
+        <v>39</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I9">
+        <v>0.03</v>
+      </c>
+      <c r="J9">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" spans="1:10">
       <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="5" t="s">
-        <v>37</v>
+      <c r="B10" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="2"/>
+        <v>65536</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>6561</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="1"/>
         <v>1679616</v>
       </c>
-      <c r="E10" s="3">
-        <f t="shared" si="2"/>
-        <v>1679616</v>
-      </c>
       <c r="F10" s="3">
         <v>16</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>38</v>
+      <c r="G10" s="7" t="s">
+        <v>41</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I10">
+        <v>0.02</v>
+      </c>
+      <c r="J10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" spans="1:10">
       <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="5" t="s">
-        <v>39</v>
+      <c r="B11" s="7" t="s">
+        <v>42</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="2"/>
+        <v>262144</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>19683</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="1"/>
         <v>10077696</v>
       </c>
-      <c r="E11" s="3">
-        <f t="shared" si="2"/>
-        <v>10077696</v>
-      </c>
       <c r="F11" s="3">
         <v>20</v>
       </c>
-      <c r="G11" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="H11" s="10">
+      <c r="G11" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H11" s="9">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+      <c r="J11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1" spans="1:10">
       <c r="A12" s="3">
         <v>11</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>41</v>
+      <c r="B12" s="7" t="s">
+        <v>44</v>
       </c>
       <c r="C12" s="3">
+        <f t="shared" si="2"/>
+        <v>1048576</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>59049</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="1"/>
         <v>60466176</v>
       </c>
-      <c r="E12" s="3">
-        <f t="shared" si="2"/>
-        <v>60466176</v>
-      </c>
       <c r="F12" s="3">
         <v>25</v>
       </c>
-      <c r="G12" s="5" t="s">
-        <v>42</v>
+      <c r="G12" s="7" t="s">
+        <v>45</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I12">
+        <v>0.01</v>
+      </c>
+      <c r="J12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1" spans="1:10">
       <c r="A13" s="3">
         <v>12</v>
       </c>
-      <c r="B13" s="5" t="s">
-        <v>43</v>
+      <c r="B13" s="7" t="s">
+        <v>46</v>
       </c>
       <c r="C13" s="3">
+        <f t="shared" si="2"/>
+        <v>4194304</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>177147</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="1"/>
         <v>362797056</v>
       </c>
-      <c r="E13" s="3">
-        <f t="shared" si="2"/>
-        <v>362797056</v>
-      </c>
       <c r="F13" s="3">
         <v>30</v>
       </c>
-      <c r="G13" s="5" t="s">
-        <v>44</v>
+      <c r="G13" s="7" t="s">
+        <v>47</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I13">
+        <v>0.005</v>
+      </c>
+      <c r="J13">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1" spans="1:10">
       <c r="A14" s="3">
         <v>13</v>
       </c>
-      <c r="B14" s="5" t="s">
-        <v>45</v>
+      <c r="B14" s="7" t="s">
+        <v>48</v>
       </c>
       <c r="C14" s="3">
+        <f t="shared" si="2"/>
+        <v>16777216</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>531441</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="1"/>
         <v>2176782336</v>
       </c>
-      <c r="E14" s="3">
-        <f t="shared" si="2"/>
-        <v>2176782336</v>
-      </c>
       <c r="F14" s="3">
         <v>40</v>
       </c>
-      <c r="G14" s="5" t="s">
-        <v>46</v>
+      <c r="G14" s="7" t="s">
+        <v>49</v>
       </c>
       <c r="H14" s="3">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" ht="17.25" customHeight="1" spans="1:8">
+      <c r="I14">
+        <v>0.002</v>
+      </c>
+      <c r="J14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1" spans="1:10">
       <c r="A15" s="3">
         <v>14</v>
       </c>
-      <c r="B15" s="5" t="s">
-        <v>47</v>
+      <c r="B15" s="7" t="s">
+        <v>50</v>
       </c>
       <c r="C15" s="3">
+        <v>1000000000</v>
+      </c>
+      <c r="D15" s="3">
         <v>10000000</v>
       </c>
-      <c r="D15" s="9">
-        <v>10000000000000</v>
-      </c>
-      <c r="E15" s="9">
+      <c r="E15" s="10">
         <v>10000000000000</v>
       </c>
       <c r="F15" s="3">
         <v>50</v>
       </c>
-      <c r="G15" s="5" t="s">
-        <v>48</v>
+      <c r="G15" s="7" t="s">
+        <v>51</v>
       </c>
       <c r="H15" s="3">
         <v>20</v>
+      </c>
+      <c r="I15">
+        <v>0.0005</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1927,19 +2026,19 @@
   </sheetPr>
   <dimension ref="A1:F104"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
   <cols>
     <col min="1" max="1" width="12.375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="21.0625" style="1" customWidth="1"/>
     <col min="3" max="4" width="12.375" style="1" customWidth="1"/>
     <col min="5" max="5" width="12.25" style="1" customWidth="1"/>
-    <col min="6" max="6" width="21.375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25" customHeight="1" spans="2:6">
@@ -1947,7 +2046,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -1955,7 +2054,7 @@
       <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
@@ -1972,11 +2071,11 @@
       <c r="D2" s="3">
         <v>100</v>
       </c>
-      <c r="E2" s="6">
-        <v>10</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>50</v>
+      <c r="E2" s="4">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:6">
@@ -1995,8 +2094,8 @@
       <c r="E3" s="3">
         <v>10</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>51</v>
+      <c r="F3" s="7" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:6">
@@ -2015,8 +2114,8 @@
       <c r="E4" s="3">
         <v>10</v>
       </c>
-      <c r="F4" s="5" t="s">
-        <v>52</v>
+      <c r="F4" s="7" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:6">
@@ -2035,8 +2134,8 @@
       <c r="E5" s="3">
         <v>10</v>
       </c>
-      <c r="F5" s="5" t="s">
-        <v>53</v>
+      <c r="F5" s="7" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:6">
@@ -2056,8 +2155,8 @@
       <c r="E6" s="3">
         <v>10</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>54</v>
+      <c r="F6" s="7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:6">
@@ -2076,8 +2175,8 @@
       <c r="E7" s="3">
         <v>11</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>55</v>
+      <c r="F7" s="7" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:6">
@@ -2096,8 +2195,8 @@
       <c r="E8" s="3">
         <v>11</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>56</v>
+      <c r="F8" s="7" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:6">
@@ -2116,8 +2215,8 @@
       <c r="E9" s="3">
         <v>12</v>
       </c>
-      <c r="F9" s="5" t="s">
-        <v>57</v>
+      <c r="F9" s="7" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:6">
@@ -2136,8 +2235,8 @@
       <c r="E10" s="3">
         <v>12</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>58</v>
+      <c r="F10" s="7" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:6">
@@ -2156,8 +2255,8 @@
       <c r="E11" s="3">
         <v>13</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>59</v>
+      <c r="F11" s="7" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:6">
@@ -2176,8 +2275,8 @@
       <c r="E12" s="3">
         <v>13</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>60</v>
+      <c r="F12" s="7" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:6">
@@ -2196,8 +2295,8 @@
       <c r="E13" s="3">
         <v>14</v>
       </c>
-      <c r="F13" s="5" t="s">
-        <v>61</v>
+      <c r="F13" s="7" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:6">
@@ -2216,8 +2315,8 @@
       <c r="E14" s="3">
         <v>14</v>
       </c>
-      <c r="F14" s="5" t="s">
-        <v>62</v>
+      <c r="F14" s="7" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:6">
@@ -2236,8 +2335,8 @@
       <c r="E15" s="3">
         <v>15</v>
       </c>
-      <c r="F15" s="5" t="s">
-        <v>63</v>
+      <c r="F15" s="7" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:6">
@@ -2256,8 +2355,8 @@
       <c r="E16" s="3">
         <v>15</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>64</v>
+      <c r="F16" s="7" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:6">
@@ -2276,8 +2375,8 @@
       <c r="E17" s="3">
         <v>16</v>
       </c>
-      <c r="F17" s="5" t="s">
-        <v>65</v>
+      <c r="F17" s="7" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:6">
@@ -2296,8 +2395,8 @@
       <c r="E18" s="3">
         <v>16</v>
       </c>
-      <c r="F18" s="5" t="s">
-        <v>66</v>
+      <c r="F18" s="7" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:6">
@@ -2316,8 +2415,8 @@
       <c r="E19" s="3">
         <v>17</v>
       </c>
-      <c r="F19" s="5" t="s">
-        <v>67</v>
+      <c r="F19" s="7" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:6">
@@ -2336,8 +2435,8 @@
       <c r="E20" s="3">
         <v>18</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>68</v>
+      <c r="F20" s="7" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="1:6">
@@ -2356,8 +2455,8 @@
       <c r="E21" s="3">
         <v>19</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>69</v>
+      <c r="F21" s="7" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="1:6">
@@ -2376,8 +2475,8 @@
       <c r="E22" s="3">
         <v>20</v>
       </c>
-      <c r="F22" s="5" t="s">
-        <v>70</v>
+      <c r="F22" s="7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="1:6">
@@ -2398,7 +2497,7 @@
         <f t="shared" ref="E23:E42" si="1">E22+1</f>
         <v>21</v>
       </c>
-      <c r="F23" s="5" t="s">
+      <c r="F23" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2420,7 +2519,7 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2442,7 +2541,7 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="F25" s="5" t="s">
+      <c r="F25" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2464,7 +2563,7 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="F26" s="5" t="s">
+      <c r="F26" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2486,7 +2585,7 @@
         <f t="shared" si="1"/>
         <v>25</v>
       </c>
-      <c r="F27" s="5" t="s">
+      <c r="F27" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2508,7 +2607,7 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2530,7 +2629,7 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="F29" s="5" t="s">
+      <c r="F29" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2552,7 +2651,7 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="F30" s="5" t="s">
+      <c r="F30" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2574,7 +2673,7 @@
         <f t="shared" si="1"/>
         <v>29</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2596,7 +2695,7 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2618,7 +2717,7 @@
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2640,7 +2739,7 @@
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="F34" s="5" t="s">
+      <c r="F34" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2662,7 +2761,7 @@
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="F35" s="5" t="s">
+      <c r="F35" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2684,7 +2783,7 @@
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="F36" s="5" t="s">
+      <c r="F36" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2706,7 +2805,7 @@
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="F37" s="5" t="s">
+      <c r="F37" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2728,7 +2827,7 @@
         <f t="shared" si="1"/>
         <v>36</v>
       </c>
-      <c r="F38" s="5" t="s">
+      <c r="F38" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2750,7 +2849,7 @@
         <f t="shared" si="1"/>
         <v>37</v>
       </c>
-      <c r="F39" s="5" t="s">
+      <c r="F39" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2772,7 +2871,7 @@
         <f t="shared" si="1"/>
         <v>38</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2794,7 +2893,7 @@
         <f t="shared" si="1"/>
         <v>39</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="F41" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2816,7 +2915,7 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2838,7 +2937,7 @@
         <f t="shared" ref="E43:E52" si="4">E42+2</f>
         <v>42</v>
       </c>
-      <c r="F43" s="5" t="s">
+      <c r="F43" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2860,7 +2959,7 @@
         <f t="shared" si="4"/>
         <v>44</v>
       </c>
-      <c r="F44" s="5" t="s">
+      <c r="F44" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2883,7 +2982,7 @@
         <f t="shared" si="4"/>
         <v>46</v>
       </c>
-      <c r="F45" s="5" t="s">
+      <c r="F45" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2906,7 +3005,7 @@
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="F46" s="5" t="s">
+      <c r="F46" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2929,7 +3028,7 @@
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="F47" s="5" t="s">
+      <c r="F47" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2952,7 +3051,7 @@
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="F48" s="5" t="s">
+      <c r="F48" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2975,7 +3074,7 @@
         <f t="shared" si="4"/>
         <v>54</v>
       </c>
-      <c r="F49" s="5" t="s">
+      <c r="F49" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2998,7 +3097,7 @@
         <f t="shared" si="4"/>
         <v>56</v>
       </c>
-      <c r="F50" s="5" t="s">
+      <c r="F50" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3021,7 +3120,7 @@
         <f t="shared" si="4"/>
         <v>58</v>
       </c>
-      <c r="F51" s="5" t="s">
+      <c r="F51" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3044,7 +3143,7 @@
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="F52" s="5" t="s">
+      <c r="F52" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3067,7 +3166,7 @@
         <f t="shared" ref="E53:E72" si="6">E52+3</f>
         <v>63</v>
       </c>
-      <c r="F53" s="5" t="s">
+      <c r="F53" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3090,7 +3189,7 @@
         <f t="shared" si="6"/>
         <v>66</v>
       </c>
-      <c r="F54" s="5" t="s">
+      <c r="F54" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3113,7 +3212,7 @@
         <f t="shared" si="6"/>
         <v>69</v>
       </c>
-      <c r="F55" s="5" t="s">
+      <c r="F55" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3136,7 +3235,7 @@
         <f t="shared" si="6"/>
         <v>72</v>
       </c>
-      <c r="F56" s="5" t="s">
+      <c r="F56" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3159,7 +3258,7 @@
         <f t="shared" si="6"/>
         <v>75</v>
       </c>
-      <c r="F57" s="5" t="s">
+      <c r="F57" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3182,7 +3281,7 @@
         <f t="shared" si="6"/>
         <v>78</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="F58" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3205,7 +3304,7 @@
         <f t="shared" si="6"/>
         <v>81</v>
       </c>
-      <c r="F59" s="5" t="s">
+      <c r="F59" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3228,7 +3327,7 @@
         <f t="shared" si="6"/>
         <v>84</v>
       </c>
-      <c r="F60" s="5" t="s">
+      <c r="F60" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3251,7 +3350,7 @@
         <f t="shared" si="6"/>
         <v>87</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3274,7 +3373,7 @@
         <f t="shared" si="6"/>
         <v>90</v>
       </c>
-      <c r="F62" s="5" t="s">
+      <c r="F62" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3297,7 +3396,7 @@
         <f t="shared" si="6"/>
         <v>93</v>
       </c>
-      <c r="F63" s="5" t="s">
+      <c r="F63" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3320,7 +3419,7 @@
         <f t="shared" si="6"/>
         <v>96</v>
       </c>
-      <c r="F64" s="5" t="s">
+      <c r="F64" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3343,7 +3442,7 @@
         <f t="shared" si="6"/>
         <v>99</v>
       </c>
-      <c r="F65" s="5" t="s">
+      <c r="F65" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3366,7 +3465,7 @@
         <f t="shared" si="6"/>
         <v>102</v>
       </c>
-      <c r="F66" s="5" t="s">
+      <c r="F66" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3389,7 +3488,7 @@
         <f t="shared" si="6"/>
         <v>105</v>
       </c>
-      <c r="F67" s="5" t="s">
+      <c r="F67" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3412,7 +3511,7 @@
         <f t="shared" si="6"/>
         <v>108</v>
       </c>
-      <c r="F68" s="5" t="s">
+      <c r="F68" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3435,7 +3534,7 @@
         <f t="shared" si="6"/>
         <v>111</v>
       </c>
-      <c r="F69" s="5" t="s">
+      <c r="F69" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3458,7 +3557,7 @@
         <f t="shared" si="6"/>
         <v>114</v>
       </c>
-      <c r="F70" s="5" t="s">
+      <c r="F70" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3481,7 +3580,7 @@
         <f t="shared" si="6"/>
         <v>117</v>
       </c>
-      <c r="F71" s="5" t="s">
+      <c r="F71" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3504,7 +3603,7 @@
         <f t="shared" si="6"/>
         <v>120</v>
       </c>
-      <c r="F72" s="5" t="s">
+      <c r="F72" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3527,7 +3626,7 @@
         <f t="shared" ref="E73:E82" si="10">E72+4</f>
         <v>124</v>
       </c>
-      <c r="F73" s="5" t="s">
+      <c r="F73" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3550,7 +3649,7 @@
         <f t="shared" si="10"/>
         <v>128</v>
       </c>
-      <c r="F74" s="5" t="s">
+      <c r="F74" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3573,7 +3672,7 @@
         <f t="shared" si="10"/>
         <v>132</v>
       </c>
-      <c r="F75" s="5" t="s">
+      <c r="F75" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3596,7 +3695,7 @@
         <f t="shared" si="10"/>
         <v>136</v>
       </c>
-      <c r="F76" s="5" t="s">
+      <c r="F76" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3619,7 +3718,7 @@
         <f t="shared" si="10"/>
         <v>140</v>
       </c>
-      <c r="F77" s="5" t="s">
+      <c r="F77" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3642,7 +3741,7 @@
         <f t="shared" si="10"/>
         <v>144</v>
       </c>
-      <c r="F78" s="5" t="s">
+      <c r="F78" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3665,7 +3764,7 @@
         <f t="shared" si="10"/>
         <v>148</v>
       </c>
-      <c r="F79" s="5" t="s">
+      <c r="F79" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3688,7 +3787,7 @@
         <f t="shared" si="10"/>
         <v>152</v>
       </c>
-      <c r="F80" s="5" t="s">
+      <c r="F80" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3711,7 +3810,7 @@
         <f t="shared" si="10"/>
         <v>156</v>
       </c>
-      <c r="F81" s="5" t="s">
+      <c r="F81" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3734,7 +3833,7 @@
         <f t="shared" si="10"/>
         <v>160</v>
       </c>
-      <c r="F82" s="5" t="s">
+      <c r="F82" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3757,7 +3856,7 @@
         <f t="shared" ref="E83:E102" si="12">E82+5</f>
         <v>165</v>
       </c>
-      <c r="F83" s="5" t="s">
+      <c r="F83" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3780,7 +3879,7 @@
         <f t="shared" si="12"/>
         <v>170</v>
       </c>
-      <c r="F84" s="5" t="s">
+      <c r="F84" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3803,7 +3902,7 @@
         <f t="shared" si="12"/>
         <v>175</v>
       </c>
-      <c r="F85" s="5" t="s">
+      <c r="F85" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3826,7 +3925,7 @@
         <f t="shared" si="12"/>
         <v>180</v>
       </c>
-      <c r="F86" s="5" t="s">
+      <c r="F86" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3849,7 +3948,7 @@
         <f t="shared" si="12"/>
         <v>185</v>
       </c>
-      <c r="F87" s="5" t="s">
+      <c r="F87" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3872,7 +3971,7 @@
         <f t="shared" si="12"/>
         <v>190</v>
       </c>
-      <c r="F88" s="5" t="s">
+      <c r="F88" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3895,7 +3994,7 @@
         <f t="shared" si="12"/>
         <v>195</v>
       </c>
-      <c r="F89" s="5" t="s">
+      <c r="F89" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3918,7 +4017,7 @@
         <f t="shared" si="12"/>
         <v>200</v>
       </c>
-      <c r="F90" s="5" t="s">
+      <c r="F90" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3941,7 +4040,7 @@
         <f t="shared" si="12"/>
         <v>205</v>
       </c>
-      <c r="F91" s="5" t="s">
+      <c r="F91" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3964,7 +4063,7 @@
         <f t="shared" si="12"/>
         <v>210</v>
       </c>
-      <c r="F92" s="5" t="s">
+      <c r="F92" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -3987,7 +4086,7 @@
         <f t="shared" si="12"/>
         <v>215</v>
       </c>
-      <c r="F93" s="5" t="s">
+      <c r="F93" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4010,7 +4109,7 @@
         <f t="shared" si="12"/>
         <v>220</v>
       </c>
-      <c r="F94" s="5" t="s">
+      <c r="F94" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4033,7 +4132,7 @@
         <f t="shared" si="12"/>
         <v>225</v>
       </c>
-      <c r="F95" s="4" t="s">
+      <c r="F95" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4056,7 +4155,7 @@
         <f t="shared" si="12"/>
         <v>230</v>
       </c>
-      <c r="F96" s="5" t="s">
+      <c r="F96" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4079,7 +4178,7 @@
         <f t="shared" si="12"/>
         <v>235</v>
       </c>
-      <c r="F97" s="5" t="s">
+      <c r="F97" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4102,7 +4201,7 @@
         <f t="shared" si="12"/>
         <v>240</v>
       </c>
-      <c r="F98" s="5" t="s">
+      <c r="F98" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4125,7 +4224,7 @@
         <f t="shared" si="12"/>
         <v>245</v>
       </c>
-      <c r="F99" s="5" t="s">
+      <c r="F99" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4148,7 +4247,7 @@
         <f t="shared" si="12"/>
         <v>250</v>
       </c>
-      <c r="F100" s="5" t="s">
+      <c r="F100" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4171,7 +4270,7 @@
         <f t="shared" si="12"/>
         <v>255</v>
       </c>
-      <c r="F101" s="5" t="s">
+      <c r="F101" s="7" t="s">
         <v>10</v>
       </c>
     </row>
@@ -4194,50 +4293,49 @@
         <f t="shared" si="12"/>
         <v>260</v>
       </c>
-      <c r="F102" s="5" t="s">
+      <c r="F102" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="103" spans="1:6">
       <c r="A103" s="1">
-        <v>101</v>
+        <v>10001</v>
       </c>
       <c r="B103" s="3">
-        <f>ROUND(B102*1.1,-5)</f>
-        <v>2900000</v>
+        <v>1000000000000000</v>
       </c>
       <c r="C103" s="1">
-        <v>11</v>
-      </c>
-      <c r="D103" s="7">
+        <v>5</v>
+      </c>
+      <c r="D103" s="5">
         <v>1000000000000000</v>
       </c>
       <c r="E103" s="8">
         <v>1000</v>
       </c>
-      <c r="F103" s="5" t="s">
-        <v>71</v>
+      <c r="F103" s="7" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="104" spans="1:6">
       <c r="A104" s="1">
-        <v>102</v>
+        <v>10002</v>
       </c>
       <c r="B104" s="3">
         <f>ROUND(B103*1.15,-5)</f>
-        <v>3300000</v>
+        <v>1150000000000000</v>
       </c>
       <c r="C104" s="1">
-        <v>11</v>
-      </c>
-      <c r="D104" s="7">
+        <v>5</v>
+      </c>
+      <c r="D104" s="5">
         <v>1000000000000000</v>
       </c>
       <c r="E104" s="1">
         <v>1000</v>
       </c>
-      <c r="F104" s="4" t="s">
-        <v>72</v>
+      <c r="F104" s="6" t="s">
+        <v>75</v>
       </c>
     </row>
   </sheetData>
@@ -4252,15 +4350,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
   </cols>
@@ -4277,11 +4375,154 @@
       <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="3">
+      <c r="B2" s="4">
         <v>1</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="5">
+        <v>0.95</v>
+      </c>
+      <c r="C3" s="5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5">
+        <v>0.9</v>
+      </c>
+      <c r="C4" s="5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="5">
+        <v>0.85</v>
+      </c>
+      <c r="C5" s="5">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="5">
+        <v>0.8</v>
+      </c>
+      <c r="C6" s="5">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="5">
+        <v>0.75</v>
+      </c>
+      <c r="C7" s="5">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="5">
+        <v>0.25</v>
+      </c>
+      <c r="C8" s="5">
+        <v>0.005</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5">
+        <v>0.1</v>
+      </c>
+      <c r="C9" s="5">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5">
+        <v>0.05</v>
+      </c>
+      <c r="C10" s="5">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="C11" s="5">
+        <v>0.0005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5">
+        <v>0.005</v>
+      </c>
+      <c r="C12" s="5">
+        <v>0.0002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5">
+        <v>0.001</v>
+      </c>
+      <c r="C13" s="5">
+        <v>0.0001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="5">
+        <v>0.0001</v>
+      </c>
+      <c r="C14" s="5">
+        <v>5e-5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5">
+        <v>5e-5</v>
+      </c>
+      <c r="C15" s="5">
+        <v>2e-5</v>
       </c>
     </row>
   </sheetData>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11080" activeTab="5"/>
+    <workbookView windowWidth="27660" windowHeight="11240"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -1254,10 +1254,10 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C3" sqref="C3"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1309,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="4">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D2" s="9">
         <v>0.1</v>
@@ -1338,7 +1338,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="1">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="C3" s="1">
         <v>0.2</v>
@@ -1486,7 +1486,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18:E23"/>
+      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2027,9 +2027,9 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A92" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B116" sqref="B116"/>
+      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -4352,7 +4352,7 @@
   </sheetPr>
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11240"/>
+    <workbookView windowWidth="27660" windowHeight="11240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -1254,10 +1254,10 @@
   </sheetPr>
   <dimension ref="A1:J3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <selection pane="bottomLeft" activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2"/>
@@ -1309,7 +1309,7 @@
         <v>20</v>
       </c>
       <c r="C2" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2" s="9">
         <v>0.1</v>
@@ -1341,7 +1341,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="1">
-        <v>0.2</v>
+        <v>2</v>
       </c>
       <c r="D3" s="11">
         <v>0.6</v>
@@ -1381,7 +1381,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="1" outlineLevelCol="4"/>
@@ -1412,13 +1412,13 @@
         <v>16</v>
       </c>
       <c r="B2" s="3">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="C2" s="3">
         <v>5</v>
       </c>
       <c r="D2" s="3">
-        <v>50</v>
+        <v>25</v>
       </c>
       <c r="E2" s="7" t="s">
         <v>10</v>
@@ -1486,7 +1486,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J2" sqref="J2"/>
+      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -2027,9 +2027,9 @@
   <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A87" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A102" sqref="A102"/>
+      <selection pane="bottomLeft" activeCell="F103" sqref="F103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="5"/>
@@ -4350,15 +4350,15 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:C15"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="2" width="12.375" style="1" customWidth="1"/>
   </cols>
@@ -4371,7 +4371,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:3">
+    <row r="2" ht="17.25" customHeight="1" spans="1:4">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -4381,8 +4381,9 @@
       <c r="C2" s="4">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="D2" s="4"/>
+    </row>
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -4392,8 +4393,9 @@
       <c r="C3" s="5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -4403,8 +4405,9 @@
       <c r="C4" s="5">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -4414,8 +4417,9 @@
       <c r="C5" s="5">
         <v>0.05</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -4425,8 +4429,9 @@
       <c r="C6" s="5">
         <v>0.02</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="D6" s="5"/>
+    </row>
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -4436,8 +4441,9 @@
       <c r="C7" s="5">
         <v>0.01</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="D7" s="5"/>
+    </row>
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -4447,8 +4453,9 @@
       <c r="C8" s="5">
         <v>0.005</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -4458,8 +4465,9 @@
       <c r="C9" s="5">
         <v>0.002</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -4469,8 +4477,9 @@
       <c r="C10" s="5">
         <v>0.001</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -4480,8 +4489,9 @@
       <c r="C11" s="5">
         <v>0.0005</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -4491,8 +4501,9 @@
       <c r="C12" s="5">
         <v>0.0002</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -4502,8 +4513,9 @@
       <c r="C13" s="5">
         <v>0.0001</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -4513,8 +4525,9 @@
       <c r="C14" s="5">
         <v>5e-5</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -4524,6 +4537,7 @@
       <c r="C15" s="5">
         <v>2e-5</v>
       </c>
+      <c r="D15" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/test.xlsx
+++ b/data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27660" windowHeight="11240" activeTab="5"/>
+    <workbookView windowWidth="27660" windowHeight="11360" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="mob" sheetId="1" r:id="rId1"/>
@@ -13,13 +13,28 @@
     <sheet name="rarity" sheetId="4" r:id="rId4"/>
     <sheet name="level" sheetId="5" r:id="rId5"/>
     <sheet name="tag" sheetId="6" r:id="rId6"/>
+    <sheet name="droprate1" sheetId="7" r:id="rId7"/>
+    <sheet name="droprate2" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="208" uniqueCount="78">
   <si>
     <t>health</t>
   </si>
@@ -93,6 +108,9 @@
     <t>sight</t>
   </si>
   <si>
+    <t>crafting</t>
+  </si>
+  <si>
     <t>common</t>
   </si>
   <si>
@@ -247,6 +265,9 @@
   </si>
   <si>
     <t>{"sight": 2.5}</t>
+  </si>
+  <si>
+    <t>sum</t>
   </si>
 </sst>
 </file>
@@ -868,7 +889,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -903,6 +924,9 @@
     </xf>
     <xf numFmtId="4" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1440,7 +1464,7 @@
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8" outlineLevelRow="2" outlineLevelCol="1"/>
@@ -1458,16 +1482,16 @@
       <c r="A2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="9">
-        <v>0.5</v>
+      <c r="B2" s="10">
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11">
-        <v>1</v>
+      <c r="B3" s="13">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1481,12 +1505,12 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:J15"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D20" sqref="D20"/>
+      <selection pane="bottomLeft" activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
@@ -1500,7 +1524,7 @@
     <col min="8" max="8" width="12.375" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="17.25" customHeight="1" spans="2:10">
+    <row r="1" ht="17.25" customHeight="1" spans="2:11">
       <c r="B1" s="7" t="s">
         <v>17</v>
       </c>
@@ -1528,13 +1552,16 @@
       <c r="J1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="2" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" customHeight="1" spans="1:11">
       <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -1549,7 +1576,7 @@
         <v>1</v>
       </c>
       <c r="G2" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H2" s="3">
         <v>1</v>
@@ -1560,31 +1587,34 @@
       <c r="J2">
         <v>20</v>
       </c>
-    </row>
-    <row r="3" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K2">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="3" ht="17.25" customHeight="1" spans="1:11">
       <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C3" s="3">
         <f>C2*4</f>
         <v>4</v>
       </c>
       <c r="D3" s="3">
-        <f t="shared" ref="D3:D14" si="0">D2*3</f>
-        <v>3</v>
+        <f>D2*4</f>
+        <v>4</v>
       </c>
       <c r="E3" s="3">
-        <f t="shared" ref="E3:E14" si="1">E2*6</f>
+        <f t="shared" ref="E3:E14" si="0">E2*6</f>
         <v>6</v>
       </c>
       <c r="F3" s="3">
         <v>2</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H3" s="9">
         <v>1.5</v>
@@ -1595,31 +1625,34 @@
       <c r="J3">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" spans="1:11">
       <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C4" s="3">
-        <f t="shared" ref="C4:C14" si="2">C3*4</f>
+        <f t="shared" ref="C4:C14" si="1">C3*4</f>
         <v>16</v>
       </c>
       <c r="D4" s="3">
+        <f t="shared" ref="D4:D14" si="2">D3*4</f>
+        <v>16</v>
+      </c>
+      <c r="E4" s="3">
         <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="E4" s="3">
-        <f t="shared" si="1"/>
         <v>36</v>
       </c>
       <c r="F4" s="9">
         <v>3.5</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3">
         <v>2</v>
@@ -1630,31 +1663,34 @@
       <c r="J4">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K4">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" customHeight="1" spans="1:11">
       <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="3">
+        <f t="shared" si="1"/>
+        <v>64</v>
+      </c>
+      <c r="D5" s="3">
         <f t="shared" si="2"/>
         <v>64</v>
       </c>
-      <c r="D5" s="3">
+      <c r="E5" s="3">
         <f t="shared" si="0"/>
-        <v>27</v>
-      </c>
-      <c r="E5" s="3">
-        <f t="shared" si="1"/>
         <v>216</v>
       </c>
       <c r="F5" s="3">
         <v>5</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="H5" s="9">
         <v>2.5</v>
@@ -1665,31 +1701,34 @@
       <c r="J5">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K5">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" customHeight="1" spans="1:11">
       <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C6" s="3">
+        <f t="shared" si="1"/>
+        <v>256</v>
+      </c>
+      <c r="D6" s="3">
         <f t="shared" si="2"/>
         <v>256</v>
       </c>
-      <c r="D6" s="3">
+      <c r="E6" s="3">
         <f t="shared" si="0"/>
-        <v>81</v>
-      </c>
-      <c r="E6" s="3">
-        <f t="shared" si="1"/>
         <v>1296</v>
       </c>
       <c r="F6" s="9">
         <v>6.5</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="3">
         <v>3</v>
@@ -1700,31 +1739,34 @@
       <c r="J6">
         <v>16</v>
       </c>
-    </row>
-    <row r="7" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K6">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" customHeight="1" spans="1:11">
       <c r="A7" s="3">
         <v>6</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7" s="3">
+        <f t="shared" si="1"/>
+        <v>1024</v>
+      </c>
+      <c r="D7" s="3">
         <f t="shared" si="2"/>
         <v>1024</v>
       </c>
-      <c r="D7" s="3">
+      <c r="E7" s="3">
         <f t="shared" si="0"/>
-        <v>243</v>
-      </c>
-      <c r="E7" s="3">
-        <f t="shared" si="1"/>
         <v>7776</v>
       </c>
       <c r="F7" s="9">
         <v>8.5</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="3">
         <v>4</v>
@@ -1735,31 +1777,34 @@
       <c r="J7">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" customHeight="1" spans="1:11">
       <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C8" s="3">
+        <f t="shared" si="1"/>
+        <v>4096</v>
+      </c>
+      <c r="D8" s="3">
         <f t="shared" si="2"/>
         <v>4096</v>
       </c>
-      <c r="D8" s="3">
+      <c r="E8" s="3">
         <f t="shared" si="0"/>
-        <v>729</v>
-      </c>
-      <c r="E8" s="3">
-        <f t="shared" si="1"/>
         <v>46656</v>
       </c>
       <c r="F8" s="3">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H8" s="3">
         <v>5</v>
@@ -1770,31 +1815,34 @@
       <c r="J8">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K8">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" customHeight="1" spans="1:11">
       <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3">
+        <f t="shared" si="1"/>
+        <v>16384</v>
+      </c>
+      <c r="D9" s="3">
         <f t="shared" si="2"/>
         <v>16384</v>
       </c>
-      <c r="D9" s="3">
+      <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>2187</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="1"/>
         <v>279936</v>
       </c>
       <c r="F9" s="9">
         <v>13.5</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H9" s="3">
         <v>6</v>
@@ -1805,31 +1853,34 @@
       <c r="J9">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K9">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" customHeight="1" spans="1:11">
       <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C10" s="3">
+        <f t="shared" si="1"/>
+        <v>65536</v>
+      </c>
+      <c r="D10" s="3">
         <f t="shared" si="2"/>
         <v>65536</v>
       </c>
-      <c r="D10" s="3">
+      <c r="E10" s="3">
         <f t="shared" si="0"/>
-        <v>6561</v>
-      </c>
-      <c r="E10" s="3">
-        <f t="shared" si="1"/>
         <v>1679616</v>
       </c>
       <c r="F10" s="3">
         <v>16</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H10" s="3">
         <v>7</v>
@@ -1840,31 +1891,34 @@
       <c r="J10">
         <v>12</v>
       </c>
-    </row>
-    <row r="11" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K10">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" customHeight="1" spans="1:11">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3">
+        <f t="shared" si="1"/>
+        <v>262144</v>
+      </c>
+      <c r="D11" s="3">
         <f t="shared" si="2"/>
         <v>262144</v>
       </c>
-      <c r="D11" s="3">
+      <c r="E11" s="3">
         <f t="shared" si="0"/>
-        <v>19683</v>
-      </c>
-      <c r="E11" s="3">
-        <f t="shared" si="1"/>
         <v>10077696</v>
       </c>
       <c r="F11" s="3">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H11" s="9">
         <v>8.5</v>
@@ -1875,31 +1929,34 @@
       <c r="J11">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K11">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" customHeight="1" spans="1:11">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="3">
+        <f t="shared" si="1"/>
+        <v>1048576</v>
+      </c>
+      <c r="D12" s="3">
         <f t="shared" si="2"/>
         <v>1048576</v>
       </c>
-      <c r="D12" s="3">
+      <c r="E12" s="3">
         <f t="shared" si="0"/>
-        <v>59049</v>
-      </c>
-      <c r="E12" s="3">
-        <f t="shared" si="1"/>
         <v>60466176</v>
       </c>
       <c r="F12" s="3">
         <v>25</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" s="3">
         <v>10</v>
@@ -1910,31 +1967,34 @@
       <c r="J12">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K12">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" customHeight="1" spans="1:11">
       <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C13" s="3">
+        <f t="shared" si="1"/>
+        <v>4194304</v>
+      </c>
+      <c r="D13" s="3">
         <f t="shared" si="2"/>
         <v>4194304</v>
       </c>
-      <c r="D13" s="3">
+      <c r="E13" s="3">
         <f t="shared" si="0"/>
-        <v>177147</v>
-      </c>
-      <c r="E13" s="3">
-        <f t="shared" si="1"/>
         <v>362797056</v>
       </c>
       <c r="F13" s="3">
         <v>30</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="H13" s="3">
         <v>12</v>
@@ -1945,31 +2005,34 @@
       <c r="J13">
         <v>9</v>
       </c>
-    </row>
-    <row r="14" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K13">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" customHeight="1" spans="1:11">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C14" s="3">
+        <f t="shared" si="1"/>
+        <v>16777216</v>
+      </c>
+      <c r="D14" s="3">
         <f t="shared" si="2"/>
         <v>16777216</v>
       </c>
-      <c r="D14" s="3">
+      <c r="E14" s="3">
         <f t="shared" si="0"/>
-        <v>531441</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" si="1"/>
         <v>2176782336</v>
       </c>
       <c r="F14" s="3">
         <v>40</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="H14" s="3">
         <v>15</v>
@@ -1980,19 +2043,22 @@
       <c r="J14">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" ht="17.25" customHeight="1" spans="1:10">
+      <c r="K14">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" customHeight="1" spans="1:11">
       <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C15" s="3">
         <v>1000000000</v>
       </c>
       <c r="D15" s="3">
-        <v>10000000</v>
+        <v>1000000000</v>
       </c>
       <c r="E15" s="10">
         <v>10000000000000</v>
@@ -2001,7 +2067,7 @@
         <v>50</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="H15" s="3">
         <v>20</v>
@@ -2011,6 +2077,9 @@
       </c>
       <c r="J15">
         <v>8</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2046,7 +2115,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>0</v>
@@ -2075,7 +2144,7 @@
         <v>10</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" ht="17.25" customHeight="1" spans="1:6">
@@ -2095,7 +2164,7 @@
         <v>10</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="4" ht="17.25" customHeight="1" spans="1:6">
@@ -2115,7 +2184,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="5" ht="17.25" customHeight="1" spans="1:6">
@@ -2135,7 +2204,7 @@
         <v>10</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" ht="17.25" customHeight="1" spans="1:6">
@@ -2156,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" ht="17.25" customHeight="1" spans="1:6">
@@ -2176,7 +2245,7 @@
         <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="8" ht="17.25" customHeight="1" spans="1:6">
@@ -2196,7 +2265,7 @@
         <v>11</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="9" ht="17.25" customHeight="1" spans="1:6">
@@ -2216,7 +2285,7 @@
         <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" ht="17.25" customHeight="1" spans="1:6">
@@ -2236,7 +2305,7 @@
         <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" ht="17.25" customHeight="1" spans="1:6">
@@ -2256,7 +2325,7 @@
         <v>13</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="12" ht="17.25" customHeight="1" spans="1:6">
@@ -2276,7 +2345,7 @@
         <v>13</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" ht="17.25" customHeight="1" spans="1:6">
@@ -2296,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" ht="17.25" customHeight="1" spans="1:6">
@@ -2316,7 +2385,7 @@
         <v>14</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="15" ht="17.25" customHeight="1" spans="1:6">
@@ -2336,7 +2405,7 @@
         <v>15</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="16" ht="17.25" customHeight="1" spans="1:6">
@@ -2356,7 +2425,7 @@
         <v>15</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" ht="17.25" customHeight="1" spans="1:6">
@@ -2376,7 +2445,7 @@
         <v>16</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="18" ht="17.25" customHeight="1" spans="1:6">
@@ -2396,7 +2465,7 @@
         <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" ht="17.25" customHeight="1" spans="1:6">
@@ -2416,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" ht="17.25" customHeight="1" spans="1:6">
@@ -2436,7 +2505,7 @@
         <v>18</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" ht="17.25" customHeight="1" spans="1:6">
@@ -2456,7 +2525,7 @@
         <v>19</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" ht="17.25" customHeight="1" spans="1:6">
@@ -2476,7 +2545,7 @@
         <v>20</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="23" ht="17.25" customHeight="1" spans="1:6">
@@ -4314,7 +4383,7 @@
         <v>1000</v>
       </c>
       <c r="F103" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -4335,7 +4404,7 @@
         <v>1000</v>
       </c>
       <c r="F104" s="6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -4352,7 +4421,7 @@
   </sheetPr>
   <dimension ref="A1:D15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
       <selection pane="bottomLeft" activeCell="D1" sqref="D1:D15"/>
@@ -4543,4 +4612,1664 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="O15" sqref="O15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.4</v>
+      </c>
+      <c r="D2">
+        <v>0.19</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f>SUM(C2:P2)</f>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>0.2</v>
+      </c>
+      <c r="D3">
+        <v>0.6</v>
+      </c>
+      <c r="E3">
+        <v>0.19</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" ref="Q3:Q15" si="0">SUM(C3:P3)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.1</v>
+      </c>
+      <c r="D4">
+        <v>0.25</v>
+      </c>
+      <c r="E4">
+        <v>0.6</v>
+      </c>
+      <c r="F4">
+        <v>0.049</v>
+      </c>
+      <c r="G4">
+        <v>0.001</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.15</v>
+      </c>
+      <c r="E5">
+        <v>0.35</v>
+      </c>
+      <c r="F5">
+        <v>0.45</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.05</v>
+      </c>
+      <c r="E6">
+        <v>0.15</v>
+      </c>
+      <c r="F6">
+        <v>0.35</v>
+      </c>
+      <c r="G6">
+        <v>0.445</v>
+      </c>
+      <c r="H6">
+        <v>0.005</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.05</v>
+      </c>
+      <c r="F7">
+        <v>0.2</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>0.349</v>
+      </c>
+      <c r="I7">
+        <v>0.001</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.1</v>
+      </c>
+      <c r="G8">
+        <v>0.25</v>
+      </c>
+      <c r="H8">
+        <v>0.5</v>
+      </c>
+      <c r="I8">
+        <v>0.149</v>
+      </c>
+      <c r="J8">
+        <v>0.001</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.15</v>
+      </c>
+      <c r="H9">
+        <v>0.6</v>
+      </c>
+      <c r="I9">
+        <v>0.2</v>
+      </c>
+      <c r="J9">
+        <v>0.05</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.05</v>
+      </c>
+      <c r="H10">
+        <v>0.45</v>
+      </c>
+      <c r="I10">
+        <v>0.35</v>
+      </c>
+      <c r="J10">
+        <v>0.145</v>
+      </c>
+      <c r="K10">
+        <v>0.005</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.25</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.2</v>
+      </c>
+      <c r="K11">
+        <v>0.049</v>
+      </c>
+      <c r="L11">
+        <v>0.001</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.1</v>
+      </c>
+      <c r="I12">
+        <v>0.25</v>
+      </c>
+      <c r="J12">
+        <v>0.5</v>
+      </c>
+      <c r="K12">
+        <v>0.148</v>
+      </c>
+      <c r="L12">
+        <v>0.002</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.05</v>
+      </c>
+      <c r="I13">
+        <v>0.15</v>
+      </c>
+      <c r="J13">
+        <v>0.4</v>
+      </c>
+      <c r="K13">
+        <v>0.35</v>
+      </c>
+      <c r="L13">
+        <v>0.049</v>
+      </c>
+      <c r="M13">
+        <v>0.001</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.1</v>
+      </c>
+      <c r="J14">
+        <v>0.35</v>
+      </c>
+      <c r="K14">
+        <v>0.35</v>
+      </c>
+      <c r="L14">
+        <v>0.15</v>
+      </c>
+      <c r="M14">
+        <v>0.0492</v>
+      </c>
+      <c r="N14">
+        <v>0.0008</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>0.1</v>
+      </c>
+      <c r="O15">
+        <v>0.4999</v>
+      </c>
+      <c r="P15">
+        <v>0.0001</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="P15" sqref="P15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.8"/>
+  <cols>
+    <col min="1" max="1" width="3.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="B1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="D1">
+        <v>2</v>
+      </c>
+      <c r="E1">
+        <v>3</v>
+      </c>
+      <c r="F1">
+        <v>4</v>
+      </c>
+      <c r="G1">
+        <v>5</v>
+      </c>
+      <c r="H1">
+        <v>6</v>
+      </c>
+      <c r="I1">
+        <v>7</v>
+      </c>
+      <c r="J1">
+        <v>8</v>
+      </c>
+      <c r="K1">
+        <v>9</v>
+      </c>
+      <c r="L1">
+        <v>10</v>
+      </c>
+      <c r="M1">
+        <v>11</v>
+      </c>
+      <c r="N1">
+        <v>12</v>
+      </c>
+      <c r="O1">
+        <v>13</v>
+      </c>
+      <c r="P1">
+        <v>14</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C2">
+        <v>0.35</v>
+      </c>
+      <c r="D2">
+        <v>0.14</v>
+      </c>
+      <c r="E2">
+        <v>0.01</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <f t="shared" ref="Q2:Q15" si="0">SUM(C2:P2)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>0.4</v>
+      </c>
+      <c r="D3">
+        <v>0.5</v>
+      </c>
+      <c r="E3">
+        <v>0.09</v>
+      </c>
+      <c r="F3">
+        <v>0.01</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4">
+        <v>0.2</v>
+      </c>
+      <c r="D4">
+        <v>0.45</v>
+      </c>
+      <c r="E4">
+        <v>0.34</v>
+      </c>
+      <c r="F4">
+        <v>0.009</v>
+      </c>
+      <c r="G4">
+        <v>0.001</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.25</v>
+      </c>
+      <c r="E5">
+        <v>0.4</v>
+      </c>
+      <c r="F5">
+        <v>0.34</v>
+      </c>
+      <c r="G5">
+        <v>0.01</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.1</v>
+      </c>
+      <c r="E6">
+        <v>0.2</v>
+      </c>
+      <c r="F6">
+        <v>0.45</v>
+      </c>
+      <c r="G6">
+        <v>0.248</v>
+      </c>
+      <c r="H6">
+        <v>0.002</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0.1</v>
+      </c>
+      <c r="F7">
+        <v>0.35</v>
+      </c>
+      <c r="G7">
+        <v>0.4</v>
+      </c>
+      <c r="H7">
+        <v>0.149</v>
+      </c>
+      <c r="I7">
+        <v>0.001</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>0.15</v>
+      </c>
+      <c r="G8">
+        <v>0.35</v>
+      </c>
+      <c r="H8">
+        <v>0.45</v>
+      </c>
+      <c r="I8">
+        <v>0.049</v>
+      </c>
+      <c r="J8">
+        <v>0.001</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>39</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>0.3</v>
+      </c>
+      <c r="H9">
+        <v>0.55</v>
+      </c>
+      <c r="I9">
+        <v>0.14</v>
+      </c>
+      <c r="J9">
+        <v>0.01</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>41</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>0.15</v>
+      </c>
+      <c r="H10">
+        <v>0.5</v>
+      </c>
+      <c r="I10">
+        <v>0.3</v>
+      </c>
+      <c r="J10">
+        <v>0.045</v>
+      </c>
+      <c r="K10">
+        <v>0.005</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.35</v>
+      </c>
+      <c r="I11">
+        <v>0.5</v>
+      </c>
+      <c r="J11">
+        <v>0.14</v>
+      </c>
+      <c r="K11">
+        <v>0.009</v>
+      </c>
+      <c r="L11">
+        <v>0.001</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>0</v>
+      </c>
+      <c r="H12">
+        <v>0.15</v>
+      </c>
+      <c r="I12">
+        <v>0.35</v>
+      </c>
+      <c r="J12">
+        <v>0.45</v>
+      </c>
+      <c r="K12">
+        <v>0.045</v>
+      </c>
+      <c r="L12">
+        <v>0.005</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>47</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>0.2</v>
+      </c>
+      <c r="J13">
+        <v>0.55</v>
+      </c>
+      <c r="K13">
+        <v>0.14</v>
+      </c>
+      <c r="L13">
+        <v>0.009</v>
+      </c>
+      <c r="M13">
+        <v>0.001</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0.15</v>
+      </c>
+      <c r="J14">
+        <v>0.4</v>
+      </c>
+      <c r="K14">
+        <v>0.4</v>
+      </c>
+      <c r="L14">
+        <v>0.03</v>
+      </c>
+      <c r="M14">
+        <v>0.0192</v>
+      </c>
+      <c r="N14">
+        <v>0.0008</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0.1</v>
+      </c>
+      <c r="K15">
+        <v>0.1</v>
+      </c>
+      <c r="L15">
+        <v>0.1</v>
+      </c>
+      <c r="M15">
+        <v>0.1</v>
+      </c>
+      <c r="N15">
+        <v>0.5</v>
+      </c>
+      <c r="O15">
+        <v>0.0999</v>
+      </c>
+      <c r="P15">
+        <v>0.0001</v>
+      </c>
+      <c r="Q15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>